--- a/MAMANTA.xlsx
+++ b/MAMANTA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ACTIVITIES</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>SYSTEM PROPOSAL RESEARCH</t>
+  </si>
+  <si>
+    <t>VETERINARY SYSTEM FEATURES AND BASIS</t>
+  </si>
+  <si>
+    <t>CLIENT FINDING</t>
+  </si>
+  <si>
+    <t>NEW ADDITIONAL FEATURES RESEARCH</t>
   </si>
 </sst>
 </file>
@@ -377,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +451,57 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43731</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43726</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43727</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43733</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43734</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
